--- a/biology/Botanique/Salicorne_d'Europe/Salicorne_d'Europe.xlsx
+++ b/biology/Botanique/Salicorne_d'Europe/Salicorne_d'Europe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Salicorne_d%27Europe</t>
+          <t>Salicorne_d'Europe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salicornia europaea
 La Salicorne d'Europe est une espèce de plante du genre Salicornia et de la famille des Chenopodiaceae selon la classification classique, ou des Amaranthaceae selon la classification phylogénétique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Salicorne_d%27Europe</t>
+          <t>Salicorne_d'Europe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Salicorne d'Europe est une plante annuelle comestible (les variétés vivaces sont très amères), une herbacée présente dans les zones tempérées de tous les continents. Haute d'environ 20 cm, elle est répandue en France sur toutes les côtes maritimes et dans les marais salés. En Europe, elle naît dès la fin de l’automne et végète tout l’hiver jusqu’aux premières chaleurs. Les premières ramifications se forment et, au milieu du printemps, la plante mesure de 6 à 8 centimètres. A maturité, elle devient ligneuse (seules les extrémités des rameaux sont encore tendres) et peut atteindre 30 centimètres.
-La floraison a lieu d'août à septembre[1] ou octobre[2]. De petites fleurs apparaissent de part et d’autre des tiges et la salicorne prend des allures de bruyère. Puis, les graines se forment, la plante se dessèche. Après germination, les premières plantules apparaîtront durant l’hiver et végéteront jusqu'au réchauffement du printemps.
+La floraison a lieu d'août à septembre ou octobre. De petites fleurs apparaissent de part et d’autre des tiges et la salicorne prend des allures de bruyère. Puis, les graines se forment, la plante se dessèche. Après germination, les premières plantules apparaîtront durant l’hiver et végéteront jusqu'au réchauffement du printemps.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Salicorne_d%27Europe</t>
+          <t>Salicorne_d'Europe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les tiges tendres de la salicorne jeune, récoltée en mai/juin, peuvent se déguster crues, nature ou en vinaigrette. Plus tard, la salicorne devient un peu amère et il est préférable de la blanchir. Quelques minutes dans l’eau bouillante suffisent à lui ôter son amertume et le sel en excès. Elle sera alors cuisinée comme l’épinard, à la vapeur, à l’eau non salée ou revenue à la poêle[3]. La salicorne fraîche, très fragile, ne se garde pas plus de deux jours au réfrigérateur.
-On la trouve aussi conservée dans du vinaigre comme les cornichons[3], avec les mêmes utilisations culinaires qu'eux : accompagnement de viandes froides, assaisonnement de salades, ...
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tiges tendres de la salicorne jeune, récoltée en mai/juin, peuvent se déguster crues, nature ou en vinaigrette. Plus tard, la salicorne devient un peu amère et il est préférable de la blanchir. Quelques minutes dans l’eau bouillante suffisent à lui ôter son amertume et le sel en excès. Elle sera alors cuisinée comme l’épinard, à la vapeur, à l’eau non salée ou revenue à la poêle. La salicorne fraîche, très fragile, ne se garde pas plus de deux jours au réfrigérateur.
+On la trouve aussi conservée dans du vinaigre comme les cornichons, avec les mêmes utilisations culinaires qu'eux : accompagnement de viandes froides, assaisonnement de salades, ...
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Salicorne_d%27Europe</t>
+          <t>Salicorne_d'Europe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La salicorne est riche en potassium. Elle était utilisée pour fabriquer de la potasse caustique, un produit extrêmement alcalin, terme qui doit son nom à l’arabe al-qalyah — القَلْيَة (qui signifie « cendre de salicorne »).
 </t>
